--- a/tamil_biology/12th_Bio_Zoology_TM_Combined_23-03-2020_Page_270-279.xlsx
+++ b/tamil_biology/12th_Bio_Zoology_TM_Combined_23-03-2020_Page_270-279.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2020\git\tvmani.github.io\tamil_biology\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1DA3A1-CBE9-409E-8BB8-B8F530293FDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1573,7 +1577,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1673,24 +1677,27 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1245678" displayName="Table1245678" ref="A1:K111" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1245678" displayName="Table1245678" ref="A1:K111" totalsRowShown="0" headerRowDxfId="0">
   <tableColumns count="11">
-    <tableColumn id="1" name="question_no"/>
-    <tableColumn id="2" name="question"/>
-    <tableColumn id="3" name="exams_already_asked"/>
-    <tableColumn id="4" name="year"/>
-    <tableColumn id="5" name="option_1"/>
-    <tableColumn id="6" name="option_2"/>
-    <tableColumn id="7" name="option_3"/>
-    <tableColumn id="8" name="option_4"/>
-    <tableColumn id="11" name="option_5"/>
-    <tableColumn id="9" name="correct_answer"/>
-    <tableColumn id="10" name="Page"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="question_no"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="question"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="exams_already_asked"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="year"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="option_1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="option_2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="option_3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="option_4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="option_5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="correct_answer"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Page"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1739,7 +1746,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1772,9 +1779,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1807,6 +1831,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1982,14 +2023,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2024,7 +2065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2056,7 +2097,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2082,7 +2123,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2108,7 +2149,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2134,7 +2175,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2160,7 +2201,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2192,7 +2233,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2224,7 +2265,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2256,7 +2297,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -2267,7 +2308,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2299,7 +2340,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2331,7 +2372,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -2363,7 +2404,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2374,7 +2415,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -2406,7 +2447,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -2438,7 +2479,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -2470,7 +2511,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -2481,7 +2522,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -2513,7 +2554,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -2545,7 +2586,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -2577,7 +2618,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -2609,7 +2650,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -2641,7 +2682,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -2674,7 +2715,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -2706,7 +2747,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -2738,7 +2779,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -2770,7 +2811,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -2802,7 +2843,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -2835,7 +2876,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -2868,7 +2909,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -2900,7 +2941,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -2915,7 +2956,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -2948,7 +2989,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -2980,7 +3021,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>35</v>
       </c>
@@ -3012,7 +3053,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -3044,7 +3085,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -3070,7 +3111,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -3096,7 +3137,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -3123,7 +3164,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -3150,7 +3191,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -3177,7 +3218,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -3204,7 +3245,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -3237,7 +3278,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -3269,7 +3310,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -3301,7 +3342,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -3312,7 +3353,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
@@ -3338,7 +3379,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
@@ -3370,7 +3411,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
@@ -3403,7 +3444,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -3432,7 +3473,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -3465,7 +3506,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -3497,7 +3538,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -3529,7 +3570,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
@@ -3562,7 +3603,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55</v>
       </c>
@@ -3595,7 +3636,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56</v>
       </c>
@@ -3628,7 +3669,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>57</v>
       </c>
@@ -3661,7 +3702,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>58</v>
       </c>
@@ -3672,7 +3713,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>59</v>
       </c>
@@ -3705,7 +3746,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -3738,7 +3779,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -3771,7 +3812,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62</v>
       </c>
@@ -3803,7 +3844,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -3835,7 +3876,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>64</v>
       </c>
@@ -3868,7 +3909,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -3903,7 +3944,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -3914,7 +3955,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -3925,7 +3966,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -3936,7 +3977,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -3968,7 +4009,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4000,7 +4041,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4032,7 +4073,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>72</v>
       </c>
@@ -4064,7 +4105,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -4096,7 +4137,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>74</v>
       </c>
@@ -4128,7 +4169,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -4160,7 +4201,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76</v>
       </c>
@@ -4192,7 +4233,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -4224,7 +4265,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78</v>
       </c>
@@ -4256,7 +4297,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -4288,7 +4329,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -4320,7 +4361,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>81</v>
       </c>
@@ -4352,7 +4393,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>82</v>
       </c>
@@ -4384,7 +4425,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>83</v>
       </c>
@@ -4416,7 +4457,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -4448,7 +4489,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85</v>
       </c>
@@ -4480,7 +4521,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -4512,7 +4553,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>87</v>
       </c>
@@ -4544,7 +4585,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>88</v>
       </c>
@@ -4576,7 +4617,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>89</v>
       </c>
@@ -4608,7 +4649,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -4640,7 +4681,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
@@ -4672,7 +4713,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>92</v>
       </c>
@@ -4704,7 +4745,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>93</v>
       </c>
@@ -4736,7 +4777,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -4762,7 +4803,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>95</v>
       </c>
@@ -4794,7 +4835,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96</v>
       </c>
@@ -4826,7 +4867,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -4858,7 +4899,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -4890,7 +4931,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -4922,7 +4963,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
@@ -4954,7 +4995,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>101</v>
       </c>
@@ -4986,7 +5027,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>102</v>
       </c>
@@ -5018,7 +5059,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>103</v>
       </c>
@@ -5050,7 +5091,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>104</v>
       </c>
@@ -5082,7 +5123,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>105</v>
       </c>
@@ -5108,7 +5149,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>106</v>
       </c>
@@ -5140,7 +5181,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>107</v>
       </c>
@@ -5172,7 +5213,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>108</v>
       </c>
@@ -5204,7 +5245,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>109</v>
       </c>
@@ -5236,7 +5277,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>110</v>
       </c>
@@ -5268,7 +5309,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>111</v>
       </c>
@@ -5306,28 +5347,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>